--- a/src/test/resources/Exceldata/dsAlgoData_old.xlsx
+++ b/src/test/resources/Exceldata/dsAlgoData_old.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maya/eclipse-workspace/DSAlgoQualityQuesters/src/test/resources/Exceldata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B414BC6C-A112-2945-8324-3CBB2C54967B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C00EC8B-FB8B-3849-AD9B-C53FD84C4E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>username</t>
   </si>
@@ -144,6 +144,28 @@
 \b
 \b
 return(output)</t>
+  </si>
+  <si>
+    <t>def findMaxConsecutiveOnes(nums) :
+max_count = 0
+current_count = 0
+for num in nums:
+if num == 1:
+current_count += 1
+max_count = max(max_count, current_count)
+\b
+\b
+else:
+current_count = 0
+#\b\b\b
+\b
+\b
+\b
+\b
+return max_count</t>
+  </si>
+  <si>
+    <t>def findNumbers(nums):return sum(len(str(num)) % 2 == 0 for num in nums)</t>
   </si>
 </sst>
 </file>
@@ -553,7 +575,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -613,7 +635,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>14</v>
@@ -629,7 +651,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>14</v>
